--- a/demo/シミュレーション結果.xlsx
+++ b/demo/シミュレーション結果.xlsx
@@ -459,7 +459,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ターゲットが真ん中の場合のみ改善されたといえるかもしれない。</t>
+    <t>初期配置のターゲットが真ん中付近の場合のみ改善されたといえるかもしれない。</t>
+    <rPh sb="0" eb="4">
+      <t>ショキハイチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>フキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1697,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/demo/シミュレーション結果.xlsx
+++ b/demo/シミュレーション結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="結果一覧" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
   <si>
     <t>ステップ数</t>
     <rPh sb="4" eb="5">
@@ -178,12 +178,6 @@
     <t>t-検定: 分散が等しくないと仮定した２標本による検定</t>
   </si>
   <si>
-    <t>変数 1</t>
-  </si>
-  <si>
-    <t>変数 2</t>
-  </si>
-  <si>
     <t>平均</t>
   </si>
   <si>
@@ -259,34 +253,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>H0(帰無仮説)：更改前より更改後において、ステップ数の平均が改善されたとは言えない。</t>
-    <rPh sb="3" eb="7">
-      <t>キムカセツ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>コウカイゴ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヘイキン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>カイゼン</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>■改善前後の効果を示す全体のt検定</t>
     <rPh sb="1" eb="3">
       <t>カイゼン</t>
@@ -385,61 +351,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>H1(対立仮設)：更改前より更改後において、ステップ数の平均が改善されたと言える。</t>
-    <rPh sb="3" eb="5">
-      <t>タイリツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カセツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>P(T&lt;=t) 片側</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>t境界値片側よりt値は低いため、帰無仮説どおり更改後が更改前より改善されたとは言えない。</t>
-    <rPh sb="1" eb="3">
-      <t>キョウカイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カタガワ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヒク</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>キムカセツ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>カイゼン</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>t境界値片側よりt値は低いため、帰無仮説どおり更改後が更改前より改善されたとは言えない。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -466,6 +378,87 @@
     <rPh sb="14" eb="16">
       <t>フキン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t境界値片側よりt値は低いため、帰無仮説どおり改善後が改善前より改善されたとは言えない。</t>
+  </si>
+  <si>
+    <t>t境界値片側よりt値は低いため、帰無仮説どおり改善後が改善前より改善されたとは言えない。</t>
+    <rPh sb="1" eb="3">
+      <t>キョウカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カタガワ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>キムカセツ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H0(帰無仮説)：改善前より改善後において、ステップ数の平均が改善されたとは言えない。</t>
+    <rPh sb="3" eb="7">
+      <t>キムカセツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H1(対立仮設)：改善前より改善後において、ステップ数の平均が改善されたと言える。</t>
+    <rPh sb="3" eb="5">
+      <t>タイリツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改善前</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改善後</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改善前</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1009,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1040,25 +1033,25 @@
     <row r="2" spans="1:10">
       <c r="A2" s="2"/>
       <c r="B2" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>1</v>
@@ -1085,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1114,7 +1107,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1">
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1143,7 +1136,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1">
+    <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1172,7 +1165,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1">
+    <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1201,7 +1194,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1">
+    <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1231,7 +1224,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" hidden="1">
+    <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1261,7 +1254,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" hidden="1">
+    <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1291,7 +1284,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" hidden="1">
+    <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1321,7 +1314,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" hidden="1">
+    <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1351,7 +1344,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" hidden="1">
+    <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1381,7 +1374,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" hidden="1">
+    <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1411,7 +1404,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" hidden="1">
+    <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1441,7 +1434,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" hidden="1">
+    <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1471,7 +1464,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" hidden="1">
+    <row r="17" spans="1:10">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1501,7 +1494,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" hidden="1">
+    <row r="18" spans="1:10">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1531,9 +1524,9 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" hidden="1">
+    <row r="19" spans="1:10">
       <c r="A19" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="5">
         <v>94.16</v>
@@ -1704,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1721,22 +1714,22 @@
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -1748,15 +1741,15 @@
     <row r="9" spans="2:4">
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="10">
         <v>39.75</v>
@@ -1778,7 +1771,7 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="10">
         <v>32</v>
@@ -1789,7 +1782,7 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="10">
         <v>0</v>
@@ -1798,7 +1791,7 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="10">
         <v>62</v>
@@ -1807,7 +1800,7 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="10">
         <v>0.25497661679198219</v>
@@ -1816,7 +1809,7 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="10">
         <v>0.39979252829879286</v>
@@ -1825,7 +1818,7 @@
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="10">
         <v>1.6698041625120112</v>
@@ -1834,7 +1827,7 @@
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="10">
         <v>0.79958505659758572</v>
@@ -1843,7 +1836,7 @@
     </row>
     <row r="19" spans="2:13" ht="14.25" thickBot="1">
       <c r="B19" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="11">
         <v>1.9989715170333793</v>
@@ -1857,44 +1850,44 @@
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:13">
       <c r="B24" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="2:13">
@@ -1909,22 +1902,22 @@
     <row r="32" spans="2:13">
       <c r="B32" s="9"/>
       <c r="C32" s="9" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="2:13">
       <c r="B33" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C33" s="10">
         <v>40</v>
@@ -1933,7 +1926,7 @@
         <v>33.5625</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L33" s="10">
         <v>39.5</v>
@@ -1964,7 +1957,7 @@
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C35" s="10">
         <v>16</v>
@@ -1973,7 +1966,7 @@
         <v>16</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L35" s="10">
         <v>16</v>
@@ -1984,14 +1977,14 @@
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C36" s="10">
         <v>0</v>
       </c>
       <c r="D36" s="10"/>
       <c r="K36" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L36" s="10">
         <v>0</v>
@@ -2000,14 +1993,14 @@
     </row>
     <row r="37" spans="2:13">
       <c r="B37" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C37" s="10">
         <v>29</v>
       </c>
       <c r="D37" s="10"/>
       <c r="K37" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L37" s="10">
         <v>29</v>
@@ -2016,14 +2009,14 @@
     </row>
     <row r="38" spans="2:13">
       <c r="B38" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C38" s="10">
         <v>1.360178035267535</v>
       </c>
       <c r="D38" s="10"/>
       <c r="K38" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L38" s="10">
         <v>0.24866184833197091</v>
@@ -2032,14 +2025,14 @@
     </row>
     <row r="39" spans="2:13">
       <c r="B39" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C39" s="10">
         <v>9.2126973691273886E-2</v>
       </c>
       <c r="D39" s="10"/>
       <c r="K39" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L39" s="10">
         <v>0.40268747532729848</v>
@@ -2048,14 +2041,14 @@
     </row>
     <row r="40" spans="2:13">
       <c r="B40" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C40" s="10">
         <v>1.6991270265334986</v>
       </c>
       <c r="D40" s="10"/>
       <c r="K40" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L40" s="10">
         <v>1.6991270265334986</v>
@@ -2064,14 +2057,14 @@
     </row>
     <row r="41" spans="2:13">
       <c r="B41" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C41" s="10">
         <v>0.18425394738254777</v>
       </c>
       <c r="D41" s="10"/>
       <c r="K41" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L41" s="10">
         <v>0.80537495065459697</v>
@@ -2080,14 +2073,14 @@
     </row>
     <row r="42" spans="2:13" ht="14.25" thickBot="1">
       <c r="B42" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C42" s="11">
         <v>2.0452296421327048</v>
       </c>
       <c r="D42" s="11"/>
       <c r="K42" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L42" s="11">
         <v>2.0452296421327048</v>
@@ -2096,28 +2089,28 @@
     </row>
     <row r="44" spans="2:13">
       <c r="B44" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="2:13">
       <c r="B45" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="2:13">
       <c r="B46" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="2:13">
       <c r="B47" s="14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2143,16 +2136,16 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/demo/シミュレーション結果.xlsx
+++ b/demo/シミュレーション結果.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570"/>
   </bookViews>
   <sheets>
-    <sheet name="結果一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="t検定結果" sheetId="2" r:id="rId2"/>
-    <sheet name="全体用演算" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="本実験の目的" sheetId="4" r:id="rId1"/>
+    <sheet name="結果一覧" sheetId="1" r:id="rId2"/>
+    <sheet name="t検定結果" sheetId="2" r:id="rId3"/>
+    <sheet name="全体用演算" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>ステップ数</t>
     <rPh sb="4" eb="5">
@@ -459,6 +460,62 @@
   </si>
   <si>
     <t>改善前</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■本プロジェクトの実験の目的</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただ、QUBOを解く式が大きいため、GoogleColab上では実現可能な時間で計算は不可能だった。</t>
+  </si>
+  <si>
+    <t>改善前のQUBOの式</t>
+    <rPh sb="0" eb="3">
+      <t>カイゼンマエ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2つやりたい実験があります。</t>
+    <rPh sb="6" eb="8">
+      <t>ジッケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一つ目は、実現可能な時間で計算できるものか見てみたい。（特に改善前において）</t>
+  </si>
+  <si>
+    <t>二つ目は、改善前の目的項はQAで解くような式になっていなかった。改善後として、QAの特徴を更に活かせるような式を追加した。そこに効果があるか見てみたい。</t>
+  </si>
+  <si>
+    <t>その際にt検定を用いて、効果があるか検証した。</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今回、そのステップ数（解く回数）に効果があるか検証したい。</t>
+    <rPh sb="23" eb="25">
+      <t>ケンショウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -466,7 +523,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,6 +561,68 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF1F2328"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="5">
@@ -644,7 +763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,6 +809,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -698,6 +823,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,6 +854,201 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>312657</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>84783</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="1219200"/>
+          <a:ext cx="13342857" cy="7533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="円形吹き出し 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8429624" y="3171824"/>
+          <a:ext cx="3914775" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -65519"/>
+            <a:gd name="adj2" fmla="val -18618"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>目的項にロボット</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>h1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>h2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が絡んでないため</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>QA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の特徴を活かしているとは言えない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="円形吹き出し 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10506075" y="6677025"/>
+          <a:ext cx="3914775" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -65519"/>
+            <a:gd name="adj2" fmla="val -18618"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>制約項①②については、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>QA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の特徴を活かした式である。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1000,9 +1338,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="24">
+      <c r="A1" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24">
+      <c r="A2" s="16"/>
+      <c r="B2" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="24">
+      <c r="B3" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24">
+      <c r="B4" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.25">
+      <c r="B5" s="25"/>
+    </row>
+    <row r="6" spans="1:3" ht="17.25">
+      <c r="B6" s="15"/>
+      <c r="C6" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.25">
+      <c r="B7" s="15"/>
+    </row>
+    <row r="8" spans="1:3" ht="17.25">
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" spans="1:3" ht="17.25">
+      <c r="B9" s="15"/>
+    </row>
+    <row r="10" spans="1:3" ht="17.25">
+      <c r="B10" s="15"/>
+    </row>
+    <row r="11" spans="1:3" ht="17.25">
+      <c r="B11" s="15"/>
+    </row>
+    <row r="12" spans="1:3" ht="17.25">
+      <c r="B12" s="15"/>
+    </row>
+    <row r="13" spans="1:3" ht="17.25">
+      <c r="B13" s="15"/>
+    </row>
+    <row r="14" spans="1:3" ht="17.25">
+      <c r="B14" s="15"/>
+    </row>
+    <row r="15" spans="1:3" ht="17.25">
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" spans="1:3" ht="17.25">
+      <c r="B16" s="15"/>
+    </row>
+    <row r="17" spans="2:2" ht="17.25">
+      <c r="B17" s="15"/>
+    </row>
+    <row r="18" spans="2:2" ht="17.25">
+      <c r="B18" s="15"/>
+    </row>
+    <row r="19" spans="2:2" ht="17.25">
+      <c r="B19" s="15"/>
+    </row>
+    <row r="20" spans="2:2" ht="17.25">
+      <c r="B20" s="15"/>
+    </row>
+    <row r="21" spans="2:2" ht="17.25">
+      <c r="B21" s="15"/>
+    </row>
+    <row r="22" spans="2:2" ht="17.25">
+      <c r="B22" s="15"/>
+    </row>
+    <row r="23" spans="2:2" ht="17.25">
+      <c r="B23" s="15"/>
+    </row>
+    <row r="24" spans="2:2" ht="17.25">
+      <c r="B24" s="15"/>
+    </row>
+    <row r="25" spans="2:2" ht="17.25">
+      <c r="B25" s="15"/>
+    </row>
+    <row r="26" spans="2:2" ht="17.25">
+      <c r="B26" s="15"/>
+    </row>
+    <row r="27" spans="2:2" ht="17.25">
+      <c r="B27" s="15"/>
+    </row>
+    <row r="28" spans="2:2" ht="17.25">
+      <c r="B28" s="15"/>
+    </row>
+    <row r="29" spans="2:2" ht="17.25">
+      <c r="B29" s="15"/>
+    </row>
+    <row r="30" spans="2:2" ht="17.25">
+      <c r="B30" s="15"/>
+    </row>
+    <row r="31" spans="2:2" ht="17.25">
+      <c r="B31" s="15"/>
+    </row>
+    <row r="32" spans="2:2" ht="17.25">
+      <c r="B32" s="15"/>
+    </row>
+    <row r="33" spans="2:2" ht="17.25">
+      <c r="B33" s="15"/>
+    </row>
+    <row r="34" spans="2:2" ht="17.25">
+      <c r="B34" s="15"/>
+    </row>
+    <row r="35" spans="2:2" ht="17.25">
+      <c r="B35" s="15"/>
+    </row>
+    <row r="36" spans="2:2" ht="17.25">
+      <c r="B36" s="15"/>
+    </row>
+    <row r="37" spans="2:2" ht="17.25">
+      <c r="B37" s="15"/>
+    </row>
+    <row r="38" spans="2:2" ht="17.25">
+      <c r="B38" s="15"/>
+    </row>
+    <row r="39" spans="2:2" ht="17.25">
+      <c r="B39" s="15"/>
+    </row>
+    <row r="40" spans="2:2" ht="17.25">
+      <c r="B40" s="15"/>
+    </row>
+    <row r="41" spans="2:2" ht="17.25">
+      <c r="B41" s="15"/>
+    </row>
+    <row r="42" spans="2:2" ht="17.25">
+      <c r="B42" s="15"/>
+    </row>
+    <row r="43" spans="2:2" ht="17.25">
+      <c r="B43" s="15"/>
+    </row>
+    <row r="44" spans="2:2" ht="17.25">
+      <c r="B44" s="15"/>
+    </row>
+    <row r="45" spans="2:2" ht="17.25">
+      <c r="B45" s="15"/>
+    </row>
+    <row r="46" spans="2:2" ht="17.25">
+      <c r="B46" s="15"/>
+    </row>
+    <row r="47" spans="2:2" ht="17.25">
+      <c r="B47" s="15"/>
+    </row>
+    <row r="48" spans="2:2" ht="17.25">
+      <c r="B48" s="15"/>
+    </row>
+    <row r="49" spans="2:3" ht="20.25">
+      <c r="B49" s="15"/>
+      <c r="C49" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="17.25">
+      <c r="C50" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="17.25">
+      <c r="C51" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1017,37 +1548,37 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2"/>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
@@ -1693,7 +2224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M47"/>
   <sheetViews>
@@ -2119,7 +2650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B34"/>
   <sheetViews>
@@ -2135,10 +2666,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">

--- a/demo/シミュレーション結果.xlsx
+++ b/demo/シミュレーション結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="本実験の目的" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
   <si>
     <t>ステップ数</t>
     <rPh sb="4" eb="5">
@@ -515,6 +515,219 @@
     <t>今回、そのステップ数（解く回数）に効果があるか検証したい。</t>
     <rPh sb="23" eb="25">
       <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QAで鬼ごっこのような問題を解くべきかという結論について、ターゲット位置によっては甘めの有意水準でステップ数の効果を示した。</t>
+    <rPh sb="22" eb="24">
+      <t>ケツロン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>アマ</t>
+    </rPh>
+    <rPh sb="44" eb="48">
+      <t>ユウイスイジュン</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改善前が、GoogleColabという環境上でも、良い結果を出しています。</t>
+    <rPh sb="0" eb="3">
+      <t>カイゼンマエ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>カンキョウジョウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改善後は、QUBOが大きい行列であるため、作る際に時間がかかっています。メモリが豊富で、並列処理ができれば可能であると判断した。</t>
+    <rPh sb="0" eb="3">
+      <t>カイゼンゴ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（現状メモリが小さいため、ディスク上のファイルからデータを取得している）</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今の改善後では、QUBOの行も列も6×20×20=2400と6台分別のフィールド上に存在しているものとして定義している。</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カイゼンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その結果、2400×2400と上に記載したとおり、QUBOが大きい。</t>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これを6台分のロボットが同一のフィールドにあるものとして、QUBO上も定義して、行も列も20×20にできないだろうか。</t>
+    <rPh sb="4" eb="6">
+      <t>ダイブン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その結果、400×400と小さいQUBOとすることができるのではないか。</t>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>チイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記3つの結論から</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケツロン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改善後からの改良すべき点として</t>
+    <rPh sb="0" eb="2">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひいては、QAという手段を活用することによって、このようなロボットの鬼ごっこのような問題を解くことに改善できるか検証したい。</t>
+    <rPh sb="10" eb="12">
+      <t>シュダン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カツヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オニ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>古典コンピュータの性能を上げる等の対策とパラメータを変更すれば、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QAというもの活用することによって、このようなロボットの鬼ごっこのような問題を解くことについて、改善できる可能性はある。</t>
+    </r>
+    <rPh sb="39" eb="41">
+      <t>カツヨウ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="85" eb="88">
+      <t>カノウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -523,7 +736,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,6 +836,31 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -763,7 +1001,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,15 +1053,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -841,6 +1070,24 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1338,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1356,22 +1603,22 @@
     </row>
     <row r="2" spans="1:3" ht="24">
       <c r="A2" s="16"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="20" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="24">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25">
-      <c r="B5" s="25"/>
+      <c r="B5" s="22"/>
     </row>
     <row r="6" spans="1:3" ht="17.25">
       <c r="B6" s="15"/>
@@ -1507,18 +1754,23 @@
     </row>
     <row r="49" spans="2:3" ht="20.25">
       <c r="B49" s="15"/>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="17.25">
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="17.25">
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="18" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="17.25">
+      <c r="C54" s="23" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1548,37 +1800,37 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1"/>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2"/>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="17"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
@@ -2226,10 +2478,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M47"/>
+  <dimension ref="B1:M62"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2642,6 +2894,61 @@
     <row r="47" spans="2:13">
       <c r="B47" s="14" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="C51" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="C52" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="C54" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="C55" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="C56" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="C59" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="C60" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="C61" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="C62" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2666,10 +2973,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="28"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
